--- a/assets/resources/templates/FedRAMP-Vulnerability-Deviation-Request-Form.xlsx
+++ b/assets/resources/templates/FedRAMP-Vulnerability-Deviation-Request-Form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Library/CloudStorage/GoogleDrive-shiva.alipour@theclearing.com/My Drive/_Move to Drive and Clean up/desktop_6-14-2024/_downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E64EB6-5EE6-B746-A9DB-AA4137F236F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D13434-5443-274E-AF81-F82D98D26B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="760" windowWidth="21000" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1696,10 +1696,31 @@
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1715,34 +1736,13 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8624,13 +8624,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="53" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
@@ -8691,10 +8691,10 @@
       <c r="B2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="146"/>
+      <c r="D2" s="136"/>
       <c r="E2" s="54" t="s">
         <v>15</v>
       </c>
@@ -8758,10 +8758,10 @@
       <c r="B3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="147"/>
+      <c r="D3" s="137"/>
       <c r="E3" s="57" t="s">
         <v>18</v>
       </c>
@@ -8880,13 +8880,13 @@
       <c r="BF4" s="42"/>
     </row>
     <row r="5" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
@@ -8951,10 +8951,10 @@
       <c r="C6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="146"/>
+      <c r="E6" s="136"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -9018,10 +9018,10 @@
       <c r="C7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="148"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="9" spans="1:58" s="63" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="62"/>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="146" t="s">
         <v>170</v>
       </c>
       <c r="C9" s="140"/>
@@ -9152,23 +9152,23 @@
       <c r="K9" s="140"/>
       <c r="L9" s="140"/>
       <c r="M9" s="140"/>
-      <c r="N9" s="141" t="s">
+      <c r="N9" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="143" t="s">
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="139" t="s">
         <v>171</v>
       </c>
       <c r="T9" s="140"/>
-      <c r="U9" s="149" t="s">
+      <c r="U9" s="141" t="s">
         <v>172</v>
       </c>
       <c r="V9" s="140"/>
       <c r="W9" s="140"/>
-      <c r="X9" s="143" t="s">
+      <c r="X9" s="139" t="s">
         <v>173</v>
       </c>
       <c r="Y9" s="140"/>
@@ -9187,27 +9187,27 @@
       <c r="AL9" s="140"/>
       <c r="AM9" s="140"/>
       <c r="AN9" s="140"/>
-      <c r="AO9" s="144" t="s">
+      <c r="AO9" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="AP9" s="141" t="s">
+      <c r="AP9" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="AQ9" s="141"/>
-      <c r="AR9" s="141"/>
-      <c r="AS9" s="141"/>
-      <c r="AT9" s="141"/>
-      <c r="AU9" s="141"/>
-      <c r="AV9" s="141"/>
-      <c r="AW9" s="141"/>
-      <c r="AX9" s="141"/>
-      <c r="AY9" s="141"/>
-      <c r="AZ9" s="141"/>
-      <c r="BA9" s="141"/>
-      <c r="BB9" s="141"/>
-      <c r="BC9" s="141"/>
-      <c r="BD9" s="141"/>
-      <c r="BE9" s="141"/>
+      <c r="AQ9" s="133"/>
+      <c r="AR9" s="133"/>
+      <c r="AS9" s="133"/>
+      <c r="AT9" s="133"/>
+      <c r="AU9" s="133"/>
+      <c r="AV9" s="133"/>
+      <c r="AW9" s="133"/>
+      <c r="AX9" s="133"/>
+      <c r="AY9" s="133"/>
+      <c r="AZ9" s="133"/>
+      <c r="BA9" s="133"/>
+      <c r="BB9" s="133"/>
+      <c r="BC9" s="133"/>
+      <c r="BD9" s="133"/>
+      <c r="BE9" s="133"/>
     </row>
     <row r="10" spans="1:58" s="60" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="64" t="s">
@@ -9330,7 +9330,7 @@
       <c r="AN10" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="AO10" s="145"/>
+      <c r="AO10" s="135"/>
       <c r="AP10" s="64" t="s">
         <v>66</v>
       </c>
@@ -22859,6 +22859,11 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="S9:T9"/>
     <mergeCell ref="AP9:BE9"/>
     <mergeCell ref="AO9:AO10"/>
     <mergeCell ref="C2:D2"/>
@@ -22867,11 +22872,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="X9:AN9"/>
     <mergeCell ref="U9:W9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="S9:T9"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:XFD101">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -31896,12 +31896,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -31933,7 +31933,7 @@
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>45490</v>
+        <v>45512</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>174</v>
